--- a/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F507CE07-7478-48CC-9B39-3E65F2626476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBB3476-1864-4B4B-9E36-E3DF2E682D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FE7AA622-4F29-453E-80B8-4966DDA97930}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{43CDB901-FB2E-4758-BAE6-1F404B406C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>98,67%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
   </si>
   <si>
     <t>0,93%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290B2298-4517-4042-9FA3-C48090D2987F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9067556-2D98-488F-A807-C719F1F7E08A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1992</v>
+        <v>3703</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>14012</v>
+        <v>2260</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>16004</v>
+        <v>5963</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>475</v>
+        <v>266</v>
       </c>
       <c r="D8" s="7">
-        <v>400289</v>
+        <v>200771</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="I8" s="7">
-        <v>335602</v>
+        <v>196007</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>917</v>
+        <v>543</v>
       </c>
       <c r="N8" s="7">
-        <v>735890</v>
+        <v>396778</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3703</v>
+        <v>1992</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>2260</v>
+        <v>14012</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>5963</v>
+        <v>16004</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>266</v>
+        <v>475</v>
       </c>
       <c r="D11" s="7">
-        <v>200771</v>
+        <v>400289</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="I11" s="7">
-        <v>196007</v>
+        <v>335602</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>543</v>
+        <v>917</v>
       </c>
       <c r="N11" s="7">
-        <v>396778</v>
+        <v>735890</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBB3476-1864-4B4B-9E36-E3DF2E682D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6F0B06-FE41-41FB-8B1E-422EE7169FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{43CDB901-FB2E-4758-BAE6-1F404B406C7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F00DEF7A-4075-498D-A885-73203721D156}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Menores según si desayunan todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,7 +65,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,178 +101,214 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -257,46 +317,22 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +343,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +439,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +634,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +642,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +713,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9067556-2D98-488F-A807-C719F1F7E08A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7447D177-A14F-4BFF-A7AD-10B7F36361BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>904</v>
+        <v>42764</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I4" s="7">
-        <v>2529</v>
+        <v>45832</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -833,73 +889,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>162</v>
+      </c>
+      <c r="N4" s="7">
+        <v>88594</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3433</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>380</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>190</v>
-      </c>
-      <c r="D5" s="7">
-        <v>101675</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>461</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>169</v>
-      </c>
-      <c r="I5" s="7">
-        <v>90198</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>842</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>359</v>
-      </c>
-      <c r="N5" s="7">
-        <v>191873</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -908,153 +964,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>3703</v>
+        <v>170490</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>253</v>
+      </c>
+      <c r="I7" s="7">
+        <v>155771</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>523</v>
+      </c>
+      <c r="N7" s="7">
+        <v>326262</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2260</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>8</v>
-      </c>
-      <c r="N7" s="7">
-        <v>5963</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>200771</v>
+        <v>4227</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2994</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7220</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>277</v>
-      </c>
-      <c r="I8" s="7">
-        <v>196007</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>543</v>
-      </c>
-      <c r="N8" s="7">
-        <v>396778</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1063,153 +1119,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="D10" s="7">
-        <v>1992</v>
+        <v>201497</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>230</v>
+      </c>
+      <c r="I10" s="7">
+        <v>174305</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>472</v>
+      </c>
+      <c r="N10" s="7">
+        <v>375802</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14012</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16004</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>981</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>475</v>
-      </c>
-      <c r="D11" s="7">
-        <v>400289</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1808</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2789</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>442</v>
-      </c>
-      <c r="I11" s="7">
-        <v>335602</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>917</v>
-      </c>
-      <c r="N11" s="7">
-        <v>735890</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,153 +1274,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7">
-        <v>6599</v>
+        <v>287983</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>323</v>
+      </c>
+      <c r="I13" s="7">
+        <v>245900</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="7">
+        <v>662</v>
+      </c>
+      <c r="N13" s="7">
+        <v>533884</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18801</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>36</v>
-      </c>
-      <c r="N13" s="7">
-        <v>25400</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1011</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>931</v>
-      </c>
-      <c r="D14" s="7">
-        <v>702735</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>13538</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7">
+        <v>20</v>
+      </c>
+      <c r="N14" s="7">
+        <v>14549</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>888</v>
-      </c>
-      <c r="I14" s="7">
-        <v>621808</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1819</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1324542</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1429,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>931</v>
+      </c>
+      <c r="D16" s="7">
+        <v>702734</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>888</v>
+      </c>
+      <c r="I16" s="7">
+        <v>621808</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1819</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1324542</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6599</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7">
+        <v>18801</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="7">
+        <v>36</v>
+      </c>
+      <c r="N17" s="7">
+        <v>25400</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6F0B06-FE41-41FB-8B1E-422EE7169FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BC4297-1BAF-433A-8CA3-E0980BA11D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F00DEF7A-4075-498D-A885-73203721D156}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97EC9C2F-60F4-4F6B-92C4-2954CE5B66A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>Menores según si desayunan todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>94,94%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,13 +83,13 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>93,9%</t>
+    <t>94,93%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,19 +101,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>5,07%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,55 +125,55 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -182,31 +182,28 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>96,94%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -215,16 +212,13 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -233,103 +227,103 @@
     <t>99,65%</t>
   </si>
   <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>2,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -744,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7447D177-A14F-4BFF-A7AD-10B7F36361BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17BA596-13F8-412C-A975-460C76246B57}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1208,13 +1202,13 @@
         <v>375802</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,13 +1223,13 @@
         <v>981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1244,13 +1238,13 @@
         <v>1808</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1259,13 +1253,13 @@
         <v>2789</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1321,7 +1315,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1333,10 +1327,10 @@
         <v>287983</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1348,13 +1342,13 @@
         <v>245900</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>662</v>
@@ -1363,13 +1357,13 @@
         <v>533884</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,13 +1378,13 @@
         <v>1011</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1399,13 +1393,13 @@
         <v>13538</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -1414,13 +1408,13 @@
         <v>14549</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,13 +1482,13 @@
         <v>702734</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>888</v>
@@ -1503,13 +1497,13 @@
         <v>621808</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>1819</v>
@@ -1518,13 +1512,13 @@
         <v>1324542</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,13 +1533,13 @@
         <v>6599</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1554,13 +1548,13 @@
         <v>18801</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -1569,13 +1563,13 @@
         <v>25400</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,7 +1625,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BC4297-1BAF-433A-8CA3-E0980BA11D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7475CA9D-1383-4100-9A35-E1935E72A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97EC9C2F-60F4-4F6B-92C4-2954CE5B66A2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8D2CAFEB-7336-43B7-81C3-A18AFC242B00}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si desayunan todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,49 +71,49 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,208 +122,208 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17BA596-13F8-412C-A975-460C76246B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0B5F-BDF5-417A-8FF5-248507C53DA0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -856,10 +856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>42764</v>
+        <v>46034</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -871,10 +871,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="7">
-        <v>45832</v>
+        <v>44895</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>162</v>
       </c>
       <c r="N4" s="7">
-        <v>88594</v>
+        <v>90927</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -958,25 +958,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -991,7 +991,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D7" s="7">
-        <v>170490</v>
+        <v>156335</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1026,10 +1026,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="I7" s="7">
-        <v>155771</v>
+        <v>177673</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1038,22 +1038,22 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>523</v>
       </c>
       <c r="N7" s="7">
-        <v>326262</v>
+        <v>334009</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1065,46 +1065,46 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>4227</v>
+        <v>2964</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2994</v>
+        <v>4286</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>7220</v>
+        <v>7250</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1113,25 +1113,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1146,7 +1146,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1160,55 +1160,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>230</v>
+      </c>
+      <c r="D10" s="7">
+        <v>171332</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
         <v>242</v>
       </c>
-      <c r="D10" s="7">
-        <v>201497</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>211432</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>230</v>
-      </c>
-      <c r="I10" s="7">
-        <v>174305</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>472</v>
       </c>
       <c r="N10" s="7">
-        <v>375802</v>
+        <v>382765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1217,43 +1217,43 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>981</v>
+        <v>1740</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1808</v>
+        <v>1058</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>59</v>
@@ -1268,25 +1268,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1301,7 +1301,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -1321,10 +1321,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D13" s="7">
-        <v>287983</v>
+        <v>260984</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>62</v>
@@ -1333,28 +1333,28 @@
         <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
+        <v>339</v>
+      </c>
+      <c r="I13" s="7">
+        <v>304002</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>323</v>
-      </c>
-      <c r="I13" s="7">
-        <v>245900</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>662</v>
       </c>
       <c r="N13" s="7">
-        <v>533884</v>
+        <v>564986</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>67</v>
@@ -1372,31 +1372,31 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>1011</v>
+        <v>13283</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>997</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="7">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7">
-        <v>13538</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>74</v>
@@ -1405,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="N14" s="7">
-        <v>14549</v>
+        <v>14280</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>75</v>
@@ -1426,7 +1426,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -1441,7 +1441,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -1456,7 +1456,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1476,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>931</v>
+        <v>888</v>
       </c>
       <c r="D16" s="7">
-        <v>702734</v>
+        <v>634685</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>78</v>
@@ -1491,10 +1491,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>888</v>
+        <v>931</v>
       </c>
       <c r="I16" s="7">
-        <v>621808</v>
+        <v>738002</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>81</v>
@@ -1509,7 +1509,7 @@
         <v>1819</v>
       </c>
       <c r="N16" s="7">
-        <v>1324542</v>
+        <v>1372687</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>84</v>
@@ -1527,10 +1527,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>6599</v>
+        <v>18449</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>87</v>
@@ -1542,10 +1542,10 @@
         <v>89</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>18801</v>
+        <v>6731</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>90</v>
@@ -1560,7 +1560,7 @@
         <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>25400</v>
+        <v>25180</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>93</v>
@@ -1578,25 +1578,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -1611,7 +1611,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
